--- a/data/trans_orig/P44_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0876A975-D04E-4224-849D-68F6E388F707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70CF7F25-F0C0-47C5-A467-9E603061752C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A61BFCA9-D63D-4519-8DE5-319BD2F0BB33}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FA5B187-B543-41D9-9334-F45939470B54}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="300">
   <si>
     <t>Población según lo que opinan de tomar el sol en 2007 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -93,804 +93,813 @@
     <t>3,88%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>Peligroso</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>Sano y peligroso</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>Sano</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>Muy sano</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>Peligroso</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>Sano y peligroso</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>Sano</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>Muy sano</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que opinan de tomar el sol en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que opinan de tomar el sol en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
     <t>99,8%</t>
   </si>
   <si>
@@ -898,9 +907,6 @@
   </si>
   <si>
     <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -1342,7 +1348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860F8FF5-F49A-4C13-BB00-8A72D59FE65E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F59329-F6B5-4DA8-8133-8E376C77BD15}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1691,7 +1697,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -1700,19 +1706,19 @@
         <v>13189</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1772,13 +1778,13 @@
         <v>115358</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
@@ -1787,13 +1793,13 @@
         <v>112755</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>233</v>
@@ -1802,18 +1808,18 @@
         <v>228113</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1831,37 +1837,37 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1882,13 @@
         <v>28546</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -1891,13 +1897,13 @@
         <v>17706</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -1906,13 +1912,13 @@
         <v>46252</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1933,13 @@
         <v>148139</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>160</v>
@@ -1942,13 +1948,13 @@
         <v>162501</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
@@ -1957,13 +1963,13 @@
         <v>310640</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,13 +1984,13 @@
         <v>339552</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>363</v>
@@ -1993,13 +1999,13 @@
         <v>368247</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>700</v>
@@ -2008,13 +2014,13 @@
         <v>707800</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,13 +2035,13 @@
         <v>61452</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -2044,13 +2050,13 @@
         <v>27141</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M15" s="7">
         <v>91</v>
@@ -2059,19 +2065,19 @@
         <v>88593</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -2080,13 +2086,13 @@
         <v>965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2101,7 +2107,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2131,13 +2137,13 @@
         <v>578654</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="7">
         <v>568</v>
@@ -2146,13 +2152,13 @@
         <v>575596</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M17" s="7">
         <v>1146</v>
@@ -2161,13 +2167,13 @@
         <v>1154250</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,7 +2436,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7">
         <v>5</v>
@@ -2472,10 +2478,10 @@
         <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2496,13 @@
         <v>960798</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="7">
         <v>907</v>
@@ -2505,13 +2511,13 @@
         <v>967449</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M24" s="7">
         <v>1802</v>
@@ -2520,18 +2526,18 @@
         <v>1928247</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2549,7 +2555,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2564,7 +2570,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2579,7 +2585,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2600,13 @@
         <v>28970</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -2609,13 +2615,13 @@
         <v>30044</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>56</v>
@@ -2624,13 +2630,13 @@
         <v>59014</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2651,13 @@
         <v>162147</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H27" s="7">
         <v>202</v>
@@ -2660,13 +2666,13 @@
         <v>197366</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M27" s="7">
         <v>356</v>
@@ -2675,13 +2681,13 @@
         <v>359513</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2702,13 @@
         <v>377555</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H28" s="7">
         <v>376</v>
@@ -2711,13 +2717,13 @@
         <v>368620</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M28" s="7">
         <v>735</v>
@@ -2726,13 +2732,13 @@
         <v>746175</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2753,13 @@
         <v>100928</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -2762,13 +2768,13 @@
         <v>81114</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M29" s="7">
         <v>175</v>
@@ -2777,19 +2783,19 @@
         <v>182042</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7">
         <v>3</v>
@@ -2798,13 +2804,13 @@
         <v>2730</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -2813,13 +2819,13 @@
         <v>5175</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -2828,13 +2834,13 @@
         <v>7904</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,13 +2855,13 @@
         <v>672330</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H31" s="7">
         <v>695</v>
@@ -2864,13 +2870,13 @@
         <v>682319</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M31" s="7">
         <v>1331</v>
@@ -2879,18 +2885,18 @@
         <v>1354649</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2908,7 +2914,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2923,7 +2929,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2938,7 +2944,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2959,13 @@
         <v>51611</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H33" s="7">
         <v>60</v>
@@ -2968,13 +2974,13 @@
         <v>64222</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M33" s="7">
         <v>117</v>
@@ -2983,13 +2989,13 @@
         <v>115832</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3010,13 @@
         <v>269173</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H34" s="7">
         <v>284</v>
@@ -3019,13 +3025,13 @@
         <v>295718</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M34" s="7">
         <v>563</v>
@@ -3034,13 +3040,13 @@
         <v>564891</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3061,13 @@
         <v>519693</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H35" s="7">
         <v>572</v>
@@ -3070,13 +3076,13 @@
         <v>594579</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M35" s="7">
         <v>1122</v>
@@ -3085,13 +3091,13 @@
         <v>1114272</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3112,13 @@
         <v>99123</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H36" s="7">
         <v>79</v>
@@ -3121,13 +3127,13 @@
         <v>82228</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M36" s="7">
         <v>184</v>
@@ -3136,19 +3142,19 @@
         <v>181350</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>221</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7">
         <v>2</v>
@@ -3157,13 +3163,13 @@
         <v>1720</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3172,13 +3178,13 @@
         <v>969</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -3187,13 +3193,13 @@
         <v>2689</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,13 +3214,13 @@
         <v>941320</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H38" s="7">
         <v>996</v>
@@ -3223,13 +3229,13 @@
         <v>1037716</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M38" s="7">
         <v>1989</v>
@@ -3238,13 +3244,13 @@
         <v>1979035</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,7 +3273,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3282,7 +3288,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3297,7 +3303,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,13 +3318,13 @@
         <v>160607</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H40" s="7">
         <v>165</v>
@@ -3327,13 +3333,13 @@
         <v>171936</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M40" s="7">
         <v>321</v>
@@ -3342,13 +3348,13 @@
         <v>332543</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,13 +3369,13 @@
         <v>858706</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H41" s="7">
         <v>960</v>
@@ -3378,13 +3384,13 @@
         <v>988027</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M41" s="7">
         <v>1802</v>
@@ -3393,13 +3399,13 @@
         <v>1846733</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3420,13 @@
         <v>1874037</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H42" s="7">
         <v>1903</v>
@@ -3429,13 +3435,13 @@
         <v>1947871</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M42" s="7">
         <v>3742</v>
@@ -3444,13 +3450,13 @@
         <v>3821908</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3471,13 @@
         <v>364687</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H43" s="7">
         <v>259</v>
@@ -3480,13 +3486,13 @@
         <v>261858</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M43" s="7">
         <v>618</v>
@@ -3495,19 +3501,19 @@
         <v>626545</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>263</v>
+        <v>53</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="7">
         <v>11</v>
@@ -3516,13 +3522,13 @@
         <v>10421</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -3531,13 +3537,13 @@
         <v>6144</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>97</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>268</v>
+        <v>98</v>
       </c>
       <c r="M44" s="7">
         <v>18</v>
@@ -3546,13 +3552,13 @@
         <v>16565</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>271</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3573,13 @@
         <v>3268459</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H45" s="7">
         <v>3294</v>
@@ -3582,13 +3588,13 @@
         <v>3375835</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M45" s="7">
         <v>6501</v>
@@ -3597,18 +3603,18 @@
         <v>6644294</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3629,7 +3635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E6B580-1DD2-4811-A326-D09BB28BDA71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F26A9CB-63FA-4538-855A-8D3BFF832C36}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3646,7 +3652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3753,13 +3759,13 @@
         <v>101982</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="7">
         <v>243</v>
@@ -3768,13 +3774,13 @@
         <v>130733</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M4" s="7">
         <v>361</v>
@@ -3783,13 +3789,13 @@
         <v>232715</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,7 +3816,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3825,7 +3831,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3840,7 +3846,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,7 +3867,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3876,7 +3882,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3891,7 +3897,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,7 +3918,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3927,7 +3933,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3942,7 +3948,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,7 +3969,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3978,7 +3984,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3993,13 +3999,13 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -4014,7 +4020,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4029,7 +4035,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4044,7 +4050,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4065,13 @@
         <v>101982</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>243</v>
@@ -4074,13 +4080,13 @@
         <v>130733</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>361</v>
@@ -4089,18 +4095,18 @@
         <v>232715</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -4112,13 +4118,13 @@
         <v>549823</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>998</v>
@@ -4127,13 +4133,13 @@
         <v>619967</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7">
         <v>1610</v>
@@ -4142,13 +4148,13 @@
         <v>1169790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,7 +4175,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4184,7 +4190,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4199,7 +4205,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,7 +4226,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4235,7 +4241,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4250,7 +4256,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,7 +4277,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4286,7 +4292,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4301,7 +4307,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,7 +4328,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4337,7 +4343,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -4352,13 +4358,13 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -4373,7 +4379,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4388,7 +4394,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4403,7 +4409,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4424,13 @@
         <v>549823</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="7">
         <v>998</v>
@@ -4433,13 +4439,13 @@
         <v>619967</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M17" s="7">
         <v>1610</v>
@@ -4448,13 +4454,13 @@
         <v>1169790</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4477,13 @@
         <v>1039248</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="7">
         <v>1517</v>
@@ -4486,13 +4492,13 @@
         <v>1060079</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M18" s="7">
         <v>2481</v>
@@ -4501,13 +4507,13 @@
         <v>2099327</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,7 +4534,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4543,7 +4549,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4579,7 +4585,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4594,7 +4600,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4630,7 +4636,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4645,7 +4651,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4681,7 +4687,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4696,7 +4702,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4717,7 +4723,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -4732,7 +4738,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4747,7 +4753,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -4777,13 +4783,13 @@
         <v>1039248</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="7">
         <v>1517</v>
@@ -4792,13 +4798,13 @@
         <v>1060079</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M24" s="7">
         <v>2481</v>
@@ -4807,18 +4813,18 @@
         <v>2099327</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4830,13 +4836,13 @@
         <v>728772</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H25" s="7">
         <v>1047</v>
@@ -4845,13 +4851,13 @@
         <v>874371</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M25" s="7">
         <v>1723</v>
@@ -4860,13 +4866,13 @@
         <v>1603142</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,7 +4893,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4902,7 +4908,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4938,7 +4944,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -4953,7 +4959,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -4989,7 +4995,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5004,7 +5010,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5040,7 +5046,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5055,7 +5061,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5076,7 +5082,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -5091,7 +5097,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5106,7 +5112,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5136,13 +5142,13 @@
         <v>728772</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H31" s="7">
         <v>1047</v>
@@ -5151,13 +5157,13 @@
         <v>874371</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M31" s="7">
         <v>1723</v>
@@ -5166,18 +5172,18 @@
         <v>1603142</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5189,13 +5195,13 @@
         <v>965403</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H32" s="7">
         <v>1562</v>
@@ -5204,13 +5210,13 @@
         <v>1150432</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M32" s="7">
         <v>2568</v>
@@ -5219,13 +5225,13 @@
         <v>2115835</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,7 +5252,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5261,7 +5267,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -5276,7 +5282,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,7 +5303,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5312,7 +5318,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -5327,7 +5333,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,7 +5354,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5363,7 +5369,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -5378,7 +5384,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,7 +5405,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5414,7 +5420,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5429,13 +5435,13 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -5450,7 +5456,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -5465,7 +5471,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -5480,7 +5486,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5501,13 @@
         <v>965403</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H38" s="7">
         <v>1562</v>
@@ -5510,13 +5516,13 @@
         <v>1150432</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M38" s="7">
         <v>2568</v>
@@ -5525,13 +5531,13 @@
         <v>2115835</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5554,13 @@
         <v>3385228</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H39" s="7">
         <v>5367</v>
@@ -5563,28 +5569,28 @@
         <v>3835581</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M39" s="7">
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,7 +5611,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -5620,7 +5626,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -5635,7 +5641,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,7 +5662,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -5671,7 +5677,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -5686,7 +5692,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,7 +5713,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -5722,7 +5728,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -5737,7 +5743,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,7 +5764,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -5773,7 +5779,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -5788,13 +5794,13 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -5809,7 +5815,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -5824,7 +5830,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -5839,7 +5845,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5860,13 @@
         <v>3385228</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H45" s="7">
         <v>5367</v>
@@ -5869,33 +5875,33 @@
         <v>3835581</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M45" s="7">
         <v>8743</v>
       </c>
       <c r="N45" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44_2007-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70CF7F25-F0C0-47C5-A467-9E603061752C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ECD3726-E4B7-4876-984F-EEC7755FD8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FA5B187-B543-41D9-9334-F45939470B54}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{080ECBCB-3735-4CA1-94DD-32B626222FDB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="297">
   <si>
     <t>Población según lo que opinan de tomar el sol en 2007 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>994.0</t>
@@ -93,28 +93,28 @@
     <t>3,88%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
   </si>
   <si>
     <t>Peligroso</t>
@@ -123,28 +123,28 @@
     <t>33,0%</t>
   </si>
   <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
   </si>
   <si>
     <t>32,63%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
   </si>
   <si>
     <t>Sano y peligroso</t>
@@ -153,28 +153,28 @@
     <t>53,24%</t>
   </si>
   <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
   </si>
   <si>
     <t>58,56%</t>
   </si>
   <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
   </si>
   <si>
     <t>55,87%</t>
   </si>
   <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
   </si>
   <si>
     <t>Sano</t>
@@ -183,730 +183,721 @@
     <t>9,89%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
+    <t>5,16%</t>
+  </si>
+  <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>3,14%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>Muy sano</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>Muy sano</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que opinan de tomar el sol en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
   </si>
   <si>
     <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que opinan de tomar el sol en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -1348,7 +1339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F59329-F6B5-4DA8-8133-8E376C77BD15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE55CF9-76E2-4293-976B-53D5C7C91228}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1697,7 +1688,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -1706,19 +1697,19 @@
         <v>13189</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1778,13 +1769,13 @@
         <v>115358</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
@@ -1793,13 +1784,13 @@
         <v>112755</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>233</v>
@@ -1808,18 +1799,18 @@
         <v>228113</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1837,7 +1828,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1852,7 +1843,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1867,7 +1858,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,13 +1873,13 @@
         <v>28546</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -1897,13 +1888,13 @@
         <v>17706</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -1912,13 +1903,13 @@
         <v>46252</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,13 +1924,13 @@
         <v>148139</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>160</v>
@@ -1948,13 +1939,13 @@
         <v>162501</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
@@ -1963,13 +1954,13 @@
         <v>310640</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,13 +1975,13 @@
         <v>339552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>363</v>
@@ -1999,13 +1990,13 @@
         <v>368247</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>700</v>
@@ -2014,13 +2005,13 @@
         <v>707800</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,13 +2026,13 @@
         <v>61452</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -2050,13 +2041,13 @@
         <v>27141</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M15" s="7">
         <v>91</v>
@@ -2065,19 +2056,19 @@
         <v>88593</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -2086,28 +2077,28 @@
         <v>965</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2116,13 +2107,13 @@
         <v>965</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2128,13 @@
         <v>578654</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" s="7">
         <v>568</v>
@@ -2152,13 +2143,13 @@
         <v>575596</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M17" s="7">
         <v>1146</v>
@@ -2167,18 +2158,18 @@
         <v>1154250</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2196,7 +2187,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2211,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2226,7 +2217,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2232,13 @@
         <v>47005</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -2256,13 +2247,13 @@
         <v>51396</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="M19" s="7">
         <v>92</v>
@@ -2436,7 +2427,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="7">
         <v>5</v>
@@ -2466,7 +2457,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -2496,13 +2487,13 @@
         <v>960798</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H24" s="7">
         <v>907</v>
@@ -2511,13 +2502,13 @@
         <v>967449</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M24" s="7">
         <v>1802</v>
@@ -2526,13 +2517,13 @@
         <v>1928247</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,7 +2678,7 @@
         <v>164</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2693,13 @@
         <v>377555</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H28" s="7">
         <v>376</v>
@@ -2717,13 +2708,13 @@
         <v>368620</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M28" s="7">
         <v>735</v>
@@ -2732,13 +2723,13 @@
         <v>746175</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2744,13 @@
         <v>100928</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -2768,13 +2759,13 @@
         <v>81114</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M29" s="7">
         <v>175</v>
@@ -2783,19 +2774,19 @@
         <v>182042</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="7">
         <v>3</v>
@@ -2804,13 +2795,13 @@
         <v>2730</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -2819,13 +2810,13 @@
         <v>5175</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -2834,13 +2825,13 @@
         <v>7904</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2846,13 @@
         <v>672330</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H31" s="7">
         <v>695</v>
@@ -2870,13 +2861,13 @@
         <v>682319</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M31" s="7">
         <v>1331</v>
@@ -2885,18 +2876,18 @@
         <v>1354649</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2914,7 +2905,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2929,7 +2920,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2959,13 +2950,13 @@
         <v>51611</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H33" s="7">
         <v>60</v>
@@ -2974,13 +2965,13 @@
         <v>64222</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M33" s="7">
         <v>117</v>
@@ -2989,13 +2980,13 @@
         <v>115832</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +3001,13 @@
         <v>269173</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H34" s="7">
         <v>284</v>
@@ -3025,13 +3016,13 @@
         <v>295718</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M34" s="7">
         <v>563</v>
@@ -3040,13 +3031,13 @@
         <v>564891</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3052,13 @@
         <v>519693</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="H35" s="7">
         <v>572</v>
@@ -3076,13 +3067,13 @@
         <v>594579</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M35" s="7">
         <v>1122</v>
@@ -3091,13 +3082,13 @@
         <v>1114272</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3103,13 @@
         <v>99123</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H36" s="7">
         <v>79</v>
@@ -3127,13 +3118,13 @@
         <v>82228</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M36" s="7">
         <v>184</v>
@@ -3142,19 +3133,19 @@
         <v>181350</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>87</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="7">
         <v>2</v>
@@ -3163,13 +3154,13 @@
         <v>1720</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3178,13 +3169,13 @@
         <v>969</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -3196,10 +3187,10 @@
         <v>147</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3205,13 @@
         <v>941320</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H38" s="7">
         <v>996</v>
@@ -3229,13 +3220,13 @@
         <v>1037716</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M38" s="7">
         <v>1989</v>
@@ -3244,13 +3235,13 @@
         <v>1979035</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,7 +3264,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3288,7 +3279,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3303,7 +3294,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,13 +3309,13 @@
         <v>160607</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>237</v>
+        <v>23</v>
       </c>
       <c r="H40" s="7">
         <v>165</v>
@@ -3333,13 +3324,13 @@
         <v>171936</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M40" s="7">
         <v>321</v>
@@ -3348,13 +3339,13 @@
         <v>332543</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3360,13 @@
         <v>858706</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H41" s="7">
         <v>960</v>
@@ -3384,13 +3375,13 @@
         <v>988027</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M41" s="7">
         <v>1802</v>
@@ -3399,13 +3390,13 @@
         <v>1846733</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3411,13 @@
         <v>1874037</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H42" s="7">
         <v>1903</v>
@@ -3435,13 +3426,13 @@
         <v>1947871</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M42" s="7">
         <v>3742</v>
@@ -3450,13 +3441,13 @@
         <v>3821908</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3462,13 @@
         <v>364687</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H43" s="7">
         <v>259</v>
@@ -3486,13 +3477,13 @@
         <v>261858</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M43" s="7">
         <v>618</v>
@@ -3501,19 +3492,19 @@
         <v>626545</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>53</v>
+        <v>262</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="7">
         <v>11</v>
@@ -3522,13 +3513,13 @@
         <v>10421</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -3537,13 +3528,13 @@
         <v>6144</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="M44" s="7">
         <v>18</v>
@@ -3552,13 +3543,13 @@
         <v>16565</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>98</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3564,13 @@
         <v>3268459</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>3294</v>
@@ -3588,13 +3579,13 @@
         <v>3375835</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>6501</v>
@@ -3603,18 +3594,18 @@
         <v>6644294</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3635,7 +3626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F26A9CB-63FA-4538-855A-8D3BFF832C36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2FA5CD-E79A-4CC4-908E-C5260DF1B3DC}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3652,7 +3643,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3759,13 +3750,13 @@
         <v>101982</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="7">
         <v>243</v>
@@ -3774,13 +3765,13 @@
         <v>130733</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" s="7">
         <v>361</v>
@@ -3789,13 +3780,13 @@
         <v>232715</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,7 +3807,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3831,7 +3822,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3846,7 +3837,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,7 +3858,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3882,7 +3873,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3897,7 +3888,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,7 +3909,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3933,7 +3924,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3948,7 +3939,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,7 +3960,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3984,7 +3975,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3999,13 +3990,13 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -4020,7 +4011,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4035,7 +4026,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4050,7 +4041,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4056,13 @@
         <v>101982</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>243</v>
@@ -4080,13 +4071,13 @@
         <v>130733</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>361</v>
@@ -4095,18 +4086,18 @@
         <v>232715</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -4118,13 +4109,13 @@
         <v>549823</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>998</v>
@@ -4133,13 +4124,13 @@
         <v>619967</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>1610</v>
@@ -4148,13 +4139,13 @@
         <v>1169790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,7 +4166,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4190,7 +4181,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4205,7 +4196,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,7 +4217,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4241,7 +4232,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4256,7 +4247,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,7 +4268,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4292,7 +4283,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4307,7 +4298,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,7 +4319,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4343,7 +4334,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -4358,13 +4349,13 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -4379,7 +4370,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4394,7 +4385,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4409,7 +4400,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4415,13 @@
         <v>549823</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" s="7">
         <v>998</v>
@@ -4439,13 +4430,13 @@
         <v>619967</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M17" s="7">
         <v>1610</v>
@@ -4454,18 +4445,18 @@
         <v>1169790</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -4477,13 +4468,13 @@
         <v>1039248</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H18" s="7">
         <v>1517</v>
@@ -4492,13 +4483,13 @@
         <v>1060079</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M18" s="7">
         <v>2481</v>
@@ -4507,13 +4498,13 @@
         <v>2099327</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,7 +4525,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>139</v>
+        <v>286</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4549,7 +4540,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4564,7 +4555,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,7 +4576,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>286</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4600,7 +4591,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4615,7 +4606,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,7 +4627,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>139</v>
+        <v>286</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4651,7 +4642,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4666,7 +4657,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,7 +4678,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4702,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4717,13 +4708,13 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -4738,7 +4729,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4753,7 +4744,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -4768,7 +4759,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4774,13 @@
         <v>1039248</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H24" s="7">
         <v>1517</v>
@@ -4798,13 +4789,13 @@
         <v>1060079</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M24" s="7">
         <v>2481</v>
@@ -4813,13 +4804,13 @@
         <v>2099327</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4827,13 @@
         <v>728772</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H25" s="7">
         <v>1047</v>
@@ -4851,13 +4842,13 @@
         <v>874371</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M25" s="7">
         <v>1723</v>
@@ -4866,13 +4857,13 @@
         <v>1603142</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,7 +4899,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4923,7 +4914,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,7 +4950,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -4974,7 +4965,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,7 +5001,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5025,7 +5016,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,7 +5052,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5076,13 +5067,13 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -5112,7 +5103,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5127,7 +5118,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5133,13 @@
         <v>728772</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H31" s="7">
         <v>1047</v>
@@ -5157,13 +5148,13 @@
         <v>874371</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M31" s="7">
         <v>1723</v>
@@ -5172,18 +5163,18 @@
         <v>1603142</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5195,13 +5186,13 @@
         <v>965403</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H32" s="7">
         <v>1562</v>
@@ -5210,13 +5201,13 @@
         <v>1150432</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M32" s="7">
         <v>2568</v>
@@ -5225,13 +5216,13 @@
         <v>2115835</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,7 +5243,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5267,7 +5258,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -5282,7 +5273,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,7 +5294,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5318,7 +5309,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -5333,7 +5324,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,7 +5345,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5369,7 +5360,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -5384,7 +5375,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,7 +5396,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5420,7 +5411,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5435,13 +5426,13 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -5456,7 +5447,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -5471,7 +5462,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -5486,7 +5477,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,13 +5492,13 @@
         <v>965403</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H38" s="7">
         <v>1562</v>
@@ -5516,13 +5507,13 @@
         <v>1150432</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M38" s="7">
         <v>2568</v>
@@ -5531,13 +5522,13 @@
         <v>2115835</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5545,13 @@
         <v>3385228</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>5367</v>
@@ -5569,13 +5560,13 @@
         <v>3835581</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>8743</v>
@@ -5584,13 +5575,13 @@
         <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,7 +5602,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -5626,7 +5617,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -5641,7 +5632,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,7 +5653,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -5677,7 +5668,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -5692,7 +5683,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,7 +5704,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -5728,7 +5719,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -5743,7 +5734,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,7 +5755,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -5779,7 +5770,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -5794,13 +5785,13 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -5815,7 +5806,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -5830,7 +5821,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -5845,7 +5836,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5851,13 @@
         <v>3385228</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>5367</v>
@@ -5875,13 +5866,13 @@
         <v>3835581</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>8743</v>
@@ -5890,18 +5881,18 @@
         <v>7220808</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B05297B-F839-4C80-9668-FABF2D42E2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D57CAAC-D356-4B41-A67A-27D7B43CD648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{69BA79F5-6DE1-48BE-8C61-40846DA35DFC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{10FF70D0-2238-4B8E-92F7-F5113EA7FDC4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="225">
   <si>
     <t>Población según lo que opinan de tomar el sol en 2007 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -65,763 +65,637 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Muy peligroso</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>Peligroso</t>
   </si>
   <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>Sano y peligroso</t>
   </si>
   <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
   </si>
   <si>
     <t>Sano</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>Muy sano</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>Muy sano</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
   </si>
   <si>
     <t>58,6%</t>
   </si>
   <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,34%</t>
+    <t>0,55%</t>
   </si>
   <si>
     <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -1248,8 +1122,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BD9271-6426-44A5-8B3B-2581A8C7AD67}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5EC8C6-A66A-4CDE-9541-85762E1A9004}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1366,10 +1240,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>4475</v>
+        <v>33021</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1381,10 +1255,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>8568</v>
+        <v>26274</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1396,10 +1270,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="N4" s="7">
-        <v>13043</v>
+        <v>59295</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1417,10 +1291,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="D5" s="7">
-        <v>38063</v>
+        <v>186201</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1432,10 +1306,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="I5" s="7">
-        <v>36375</v>
+        <v>198876</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1447,10 +1321,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="N5" s="7">
-        <v>74438</v>
+        <v>385078</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1468,10 +1342,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>56</v>
+        <v>393</v>
       </c>
       <c r="D6" s="7">
-        <v>61416</v>
+        <v>400968</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1483,10 +1357,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>75</v>
+        <v>438</v>
       </c>
       <c r="I6" s="7">
-        <v>66028</v>
+        <v>434275</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1498,10 +1372,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>131</v>
+        <v>831</v>
       </c>
       <c r="N6" s="7">
-        <v>127443</v>
+        <v>835243</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1519,10 +1393,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D7" s="7">
-        <v>11405</v>
+        <v>72857</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1534,10 +1408,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>1784</v>
+        <v>28925</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1549,10 +1423,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="N7" s="7">
-        <v>13189</v>
+        <v>101782</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1570,19 +1444,19 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1591,28 +1465,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1621,102 +1495,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D9" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I9" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N9" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>28546</v>
+        <v>47005</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I10" s="7">
-        <v>17706</v>
+        <v>51396</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="N10" s="7">
-        <v>46252</v>
+        <v>98401</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,49 +1599,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="D11" s="7">
-        <v>148139</v>
+        <v>241184</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="I11" s="7">
-        <v>162501</v>
+        <v>296066</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>312</v>
+        <v>496</v>
       </c>
       <c r="N11" s="7">
-        <v>310640</v>
+        <v>537251</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1776,49 +1650,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>337</v>
+        <v>537</v>
       </c>
       <c r="D12" s="7">
-        <v>339552</v>
+        <v>575821</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
-        <v>363</v>
+        <v>517</v>
       </c>
       <c r="I12" s="7">
-        <v>368247</v>
+        <v>550396</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
-        <v>700</v>
+        <v>1054</v>
       </c>
       <c r="N12" s="7">
-        <v>707800</v>
+        <v>1126218</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,49 +1701,49 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7">
-        <v>61452</v>
+        <v>91780</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="I13" s="7">
-        <v>27141</v>
+        <v>69590</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
+        <v>155</v>
+      </c>
+      <c r="N13" s="7">
+        <v>161371</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="N13" s="7">
-        <v>88593</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,19 +1752,19 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>965</v>
+        <v>5007</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1899,28 +1773,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>965</v>
+        <v>5007</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,102 +1803,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>578</v>
+        <v>895</v>
       </c>
       <c r="D15" s="7">
-        <v>578654</v>
+        <v>960797</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>568</v>
+        <v>907</v>
       </c>
       <c r="I15" s="7">
-        <v>575596</v>
+        <v>967449</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>1146</v>
+        <v>1802</v>
       </c>
       <c r="N15" s="7">
-        <v>1154250</v>
+        <v>1928247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>47005</v>
+        <v>28970</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>51396</v>
+        <v>30044</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="N16" s="7">
-        <v>98401</v>
+        <v>59014</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,49 +1907,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="D17" s="7">
-        <v>241184</v>
+        <v>162147</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="I17" s="7">
-        <v>296066</v>
+        <v>197366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
-        <v>496</v>
+        <v>356</v>
       </c>
       <c r="N17" s="7">
-        <v>537251</v>
+        <v>359513</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,49 +1958,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>537</v>
+        <v>359</v>
       </c>
       <c r="D18" s="7">
-        <v>575821</v>
+        <v>377555</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7">
-        <v>517</v>
+        <v>376</v>
       </c>
       <c r="I18" s="7">
-        <v>550396</v>
+        <v>368620</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
-        <v>1054</v>
+        <v>735</v>
       </c>
       <c r="N18" s="7">
-        <v>1126218</v>
+        <v>746175</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,49 +2009,49 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D19" s="7">
-        <v>91780</v>
+        <v>100928</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I19" s="7">
-        <v>69590</v>
+        <v>81114</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="N19" s="7">
-        <v>161371</v>
+        <v>182042</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,49 +2060,49 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>5007</v>
+        <v>2730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>5175</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N20" s="7">
-        <v>5007</v>
+        <v>7904</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,102 +2111,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>895</v>
+        <v>636</v>
       </c>
       <c r="D21" s="7">
-        <v>960798</v>
+        <v>672330</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>907</v>
+        <v>695</v>
       </c>
       <c r="I21" s="7">
-        <v>967449</v>
+        <v>682319</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>1802</v>
+        <v>1331</v>
       </c>
       <c r="N21" s="7">
-        <v>1928247</v>
+        <v>1354649</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D22" s="7">
-        <v>28970</v>
+        <v>51611</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I22" s="7">
-        <v>30044</v>
+        <v>64222</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="N22" s="7">
-        <v>59014</v>
+        <v>115832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,40 +2215,40 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>279</v>
+      </c>
+      <c r="D23" s="7">
+        <v>269173</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="7">
-        <v>162147</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>284</v>
+      </c>
+      <c r="I23" s="7">
+        <v>295718</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="H23" s="7">
-        <v>202</v>
-      </c>
-      <c r="I23" s="7">
-        <v>197366</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>156</v>
       </c>
       <c r="M23" s="7">
-        <v>356</v>
+        <v>563</v>
       </c>
       <c r="N23" s="7">
-        <v>359513</v>
+        <v>564891</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>157</v>
@@ -2392,10 +2266,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>359</v>
+        <v>550</v>
       </c>
       <c r="D24" s="7">
-        <v>377555</v>
+        <v>519693</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>160</v>
@@ -2407,10 +2281,10 @@
         <v>162</v>
       </c>
       <c r="H24" s="7">
-        <v>376</v>
+        <v>572</v>
       </c>
       <c r="I24" s="7">
-        <v>368620</v>
+        <v>594579</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>163</v>
@@ -2422,10 +2296,10 @@
         <v>165</v>
       </c>
       <c r="M24" s="7">
-        <v>735</v>
+        <v>1122</v>
       </c>
       <c r="N24" s="7">
-        <v>746175</v>
+        <v>1114272</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>166</v>
@@ -2443,10 +2317,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D25" s="7">
-        <v>100928</v>
+        <v>99123</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>169</v>
@@ -2458,34 +2332,34 @@
         <v>171</v>
       </c>
       <c r="H25" s="7">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I25" s="7">
-        <v>81114</v>
+        <v>82228</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>173</v>
       </c>
       <c r="M25" s="7">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="N25" s="7">
-        <v>182042</v>
+        <v>181350</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,46 +2368,46 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1720</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>969</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="7">
-        <v>2730</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="N26" s="7">
+        <v>2689</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H26" s="7">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>5175</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M26" s="7">
-        <v>9</v>
-      </c>
-      <c r="N26" s="7">
-        <v>7904</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>179</v>
@@ -2545,102 +2419,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>636</v>
+        <v>993</v>
       </c>
       <c r="D27" s="7">
-        <v>672330</v>
+        <v>941320</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
-        <v>695</v>
+        <v>996</v>
       </c>
       <c r="I27" s="7">
-        <v>682319</v>
+        <v>1037716</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
-        <v>1331</v>
+        <v>1989</v>
       </c>
       <c r="N27" s="7">
-        <v>1354649</v>
+        <v>1979035</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="D28" s="7">
-        <v>51611</v>
+        <v>160607</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28" s="7">
+        <v>165</v>
+      </c>
+      <c r="I28" s="7">
+        <v>171936</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M28" s="7">
+        <v>321</v>
+      </c>
+      <c r="N28" s="7">
+        <v>332543</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="H28" s="7">
-        <v>60</v>
-      </c>
-      <c r="I28" s="7">
-        <v>64222</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M28" s="7">
-        <v>117</v>
-      </c>
-      <c r="N28" s="7">
-        <v>115832</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,49 +2523,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>279</v>
+        <v>842</v>
       </c>
       <c r="D29" s="7">
-        <v>269173</v>
+        <v>858706</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H29" s="7">
+        <v>960</v>
+      </c>
+      <c r="I29" s="7">
+        <v>988027</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>1802</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1846733</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H29" s="7">
-        <v>284</v>
-      </c>
-      <c r="I29" s="7">
-        <v>295718</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M29" s="7">
-        <v>563</v>
-      </c>
-      <c r="N29" s="7">
-        <v>564891</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,49 +2574,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>550</v>
+        <v>1839</v>
       </c>
       <c r="D30" s="7">
-        <v>519693</v>
+        <v>1874037</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1903</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1947871</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>3742</v>
+      </c>
+      <c r="N30" s="7">
+        <v>3821908</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H30" s="7">
-        <v>572</v>
-      </c>
-      <c r="I30" s="7">
-        <v>594579</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M30" s="7">
-        <v>1122</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1114272</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,49 +2625,49 @@
         <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>105</v>
+        <v>359</v>
       </c>
       <c r="D31" s="7">
-        <v>99123</v>
+        <v>364687</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31" s="7">
+        <v>259</v>
+      </c>
+      <c r="I31" s="7">
+        <v>261858</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H31" s="7">
-        <v>79</v>
-      </c>
-      <c r="I31" s="7">
-        <v>82228</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>618</v>
+      </c>
+      <c r="N31" s="7">
+        <v>626545</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="M31" s="7">
-        <v>184</v>
-      </c>
-      <c r="N31" s="7">
-        <v>181350</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,40 +2676,40 @@
         <v>50</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D32" s="7">
-        <v>1720</v>
+        <v>10421</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>218</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I32" s="7">
-        <v>969</v>
+        <v>6144</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>220</v>
       </c>
       <c r="M32" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="N32" s="7">
-        <v>2689</v>
+        <v>16565</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>221</v>
@@ -2853,370 +2727,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>993</v>
+        <v>3207</v>
       </c>
       <c r="D33" s="7">
-        <v>941320</v>
+        <v>3268459</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
-        <v>996</v>
+        <v>3294</v>
       </c>
       <c r="I33" s="7">
-        <v>1037716</v>
+        <v>3375835</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
-        <v>1989</v>
+        <v>6501</v>
       </c>
       <c r="N33" s="7">
-        <v>1979035</v>
+        <v>6644294</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>156</v>
-      </c>
-      <c r="D34" s="7">
-        <v>160607</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="A34" t="s">
         <v>224</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H34" s="7">
-        <v>165</v>
-      </c>
-      <c r="I34" s="7">
-        <v>171936</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M34" s="7">
-        <v>321</v>
-      </c>
-      <c r="N34" s="7">
-        <v>332543</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>842</v>
-      </c>
-      <c r="D35" s="7">
-        <v>858706</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H35" s="7">
-        <v>960</v>
-      </c>
-      <c r="I35" s="7">
-        <v>988027</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M35" s="7">
-        <v>1802</v>
-      </c>
-      <c r="N35" s="7">
-        <v>1846733</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>1839</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1874037</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H36" s="7">
-        <v>1903</v>
-      </c>
-      <c r="I36" s="7">
-        <v>1947871</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M36" s="7">
-        <v>3742</v>
-      </c>
-      <c r="N36" s="7">
-        <v>3821908</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="7">
-        <v>359</v>
-      </c>
-      <c r="D37" s="7">
-        <v>364687</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H37" s="7">
-        <v>259</v>
-      </c>
-      <c r="I37" s="7">
-        <v>261858</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="M37" s="7">
-        <v>618</v>
-      </c>
-      <c r="N37" s="7">
-        <v>626545</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="7">
-        <v>11</v>
-      </c>
-      <c r="D38" s="7">
-        <v>10421</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H38" s="7">
-        <v>7</v>
-      </c>
-      <c r="I38" s="7">
-        <v>6144</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="M38" s="7">
-        <v>18</v>
-      </c>
-      <c r="N38" s="7">
-        <v>16565</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3207</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3268459</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H39" s="7">
-        <v>3294</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3375835</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M39" s="7">
-        <v>6501</v>
-      </c>
-      <c r="N39" s="7">
-        <v>6644294</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>266</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
